--- a/outputGraph.xlsx
+++ b/outputGraph.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A'</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -455,6 +455,16 @@
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -471,7 +481,11 @@
           <t>a</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>a</t>
@@ -479,9 +493,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>d</t>
-        </is>
-      </c>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -495,8 +511,18 @@
           <t>d</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -511,7 +537,13 @@
           <t>b</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -522,7 +554,13 @@
           <t>X</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -534,6 +572,34 @@
           <t>X</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputGraph.xlsx
+++ b/outputGraph.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>A'</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,17 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>C</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
         </is>
       </c>
     </row>
@@ -481,23 +476,14 @@
           <t>a</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -511,18 +497,13 @@
           <t>d</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -537,13 +518,8 @@
           <t>b</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -554,17 +530,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -573,7 +548,6 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -586,20 +560,6 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
